--- a/Documentation and designs/Sprint_info/Sprint7.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint7.xlsx
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="A11:XFD13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,7 +2694,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>

--- a/Documentation and designs/Sprint_info/Sprint7.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint7.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djnenadovic\Desktop\MATF\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>Name</t>
   </si>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -397,7 +397,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -421,6 +421,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -463,7 +466,22 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -588,7 +606,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -664,7 +682,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -811,7 +829,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B6F-4357-9072-E062BD4EF823}"/>
             </c:ext>
@@ -927,34 +945,34 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B6F-4357-9072-E062BD4EF823}"/>
             </c:ext>
@@ -969,11 +987,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="308619040"/>
-        <c:axId val="308624616"/>
+        <c:axId val="326428176"/>
+        <c:axId val="326445584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="308619040"/>
+        <c:axId val="326428176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,7 +1054,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1073,10 +1091,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sr-Latn-RS"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308624616"/>
+        <c:crossAx val="326445584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1084,7 +1102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308624616"/>
+        <c:axId val="326445584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1153,7 +1171,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1184,10 +1202,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sr-Latn-RS"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308619040"/>
+        <c:crossAx val="326428176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,7 +1253,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1283,7 +1301,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1850,7 +1868,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,21 +2214,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2219,10 +2237,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
@@ -2231,10 +2249,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2243,10 +2261,10 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="23"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
@@ -2268,7 +2286,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2370,10 +2388,10 @@
       </c>
     </row>
     <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="28">
         <v>5</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -2408,8 +2426,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
@@ -2442,8 +2460,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
@@ -2474,10 +2492,10 @@
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="28">
         <v>8</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -2510,8 +2528,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="19" t="s">
         <v>42</v>
       </c>
@@ -2542,8 +2560,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="19" t="s">
         <v>44</v>
       </c>
@@ -2574,10 +2592,10 @@
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="28">
         <v>3</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -2612,8 +2630,8 @@
       </c>
     </row>
     <row r="12" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="19" t="s">
         <v>42</v>
       </c>
@@ -2646,8 +2664,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="19" t="s">
         <v>44</v>
       </c>
@@ -2678,10 +2696,10 @@
       </c>
     </row>
     <row r="14" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="28">
         <v>8</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -2694,7 +2712,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
@@ -2702,7 +2720,9 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="M14" s="19">
+        <v>5</v>
+      </c>
       <c r="N14" s="19"/>
       <c r="O14" s="19"/>
       <c r="P14" s="19"/>
@@ -2712,21 +2732,23 @@
       <c r="T14" s="19"/>
       <c r="U14" s="19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="19"/>
+      <c r="D15" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="19">
         <v>2</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>45</v>
+      <c r="F15" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -2734,7 +2756,9 @@
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="M15" s="19">
+        <v>2</v>
+      </c>
       <c r="N15" s="19"/>
       <c r="O15" s="19"/>
       <c r="P15" s="19"/>
@@ -2744,21 +2768,23 @@
       <c r="T15" s="19"/>
       <c r="U15" s="19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="19">
         <v>1</v>
       </c>
-      <c r="F16" s="19" t="s">
-        <v>45</v>
+      <c r="F16" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
@@ -2766,7 +2792,9 @@
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="M16" s="19">
+        <v>1</v>
+      </c>
       <c r="N16" s="19"/>
       <c r="O16" s="19"/>
       <c r="P16" s="19"/>
@@ -2776,7 +2804,7 @@
       <c r="T16" s="19"/>
       <c r="U16" s="19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2820,7 +2848,7 @@
       </c>
       <c r="M17" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N17" s="2">
         <f t="shared" si="1"/>
@@ -2852,7 +2880,7 @@
       </c>
       <c r="U17" s="2">
         <f t="shared" ref="U17" si="2">E17-SUM(G17:T17)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2963,35 +2991,35 @@
       </c>
       <c r="M19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="O19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="T19" s="2">
         <f>S19-SUM(T5:T16)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="U19" s="10"/>
     </row>
@@ -3037,71 +3065,71 @@
     <mergeCell ref="B11:B13"/>
   </mergeCells>
   <conditionalFormatting sqref="U17">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F7">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5:U7">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F10">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8:U10">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U13">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F16">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"To do"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:U16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3117,7 +3145,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="491" yWindow="329" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Not a valid name" promptTitle="Names" prompt="Enter assignee">
           <x14:formula1>
-            <xm:f>'E:\GIT\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\[Sprint6.xlsx]Roster'!#REF!</xm:f>
+            <xm:f>[1]Roster!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D5:D16</xm:sqref>
         </x14:dataValidation>
